--- a/training_data/2004/2004_standings.xlsx
+++ b/training_data/2004/2004_standings.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex_1/Desktop/MVP-Predictor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex_1/Desktop/MVP-Predictor/training_data/2004/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F06B577-33B5-FD4C-9066-3FF9B64E1090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC37B6-6AA0-2E43-A0F6-8E94EFF86EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{858111FD-1F57-BB4E-890D-D35A20528425}"/>
+    <workbookView xWindow="7700" yWindow="2660" windowWidth="28040" windowHeight="17440" xr2:uid="{858111FD-1F57-BB4E-890D-D35A20528425}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -50,94 +50,97 @@
     <t>W-L%</t>
   </si>
   <si>
-    <t>St. Louis Cardinals</t>
-  </si>
-  <si>
-    <t>New York Yankees</t>
-  </si>
-  <si>
-    <t>Boston Red Sox</t>
-  </si>
-  <si>
-    <t>Atlanta Braves</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers</t>
-  </si>
-  <si>
-    <t>Minnesota Twins</t>
-  </si>
-  <si>
-    <t>Anaheim Angels</t>
-  </si>
-  <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
-    <t>San Francisco Giants</t>
-  </si>
-  <si>
-    <t>Oakland Athletics</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
-  </si>
-  <si>
-    <t>Chicago Cubs</t>
-  </si>
-  <si>
-    <t>San Diego Padres</t>
-  </si>
-  <si>
-    <t>Philadelphia Phillies</t>
-  </si>
-  <si>
-    <t>Chicago White Sox</t>
-  </si>
-  <si>
-    <t>Florida Marlins</t>
-  </si>
-  <si>
-    <t>Cleveland Indians</t>
-  </si>
-  <si>
-    <t>Baltimore Orioles</t>
-  </si>
-  <si>
-    <t>Cincinnati Reds</t>
-  </si>
-  <si>
-    <t>Pittsburgh Pirates</t>
-  </si>
-  <si>
-    <t>Detroit Tigers</t>
-  </si>
-  <si>
-    <t>New York Mets</t>
-  </si>
-  <si>
-    <t>Tampa Bay Devil Rays</t>
-  </si>
-  <si>
-    <t>Colorado Rockies</t>
-  </si>
-  <si>
-    <t>Toronto Blue Jays</t>
-  </si>
-  <si>
-    <t>Milwaukee Brewers</t>
-  </si>
-  <si>
-    <t>Montreal Expos</t>
-  </si>
-  <si>
-    <t>Seattle Mariners</t>
-  </si>
-  <si>
-    <t>Kansas City Royals</t>
-  </si>
-  <si>
-    <t>Arizona Diamondbacks</t>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>NYY</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>OAK</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>CWS</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>NYM</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>SFG</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>KCR</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>Provided by &lt;a href="https://www.sports-reference.com/sharing.html?utm_source=direct&amp;utm_medium=Share&amp;utm_campaign=ShareTool"&gt;Baseball-Reference.com&lt;/a&gt;: &lt;a href="https://www.baseball-reference.com/leagues/majors/2004-standings.shtml?sr&amp;utm_source=direct&amp;utm_medium=Share&amp;utm_campaign=ShareTool#expanded_standings_overall"&gt;View Original Table&lt;/a&gt;&lt;br&gt;Generated 9/20/2023.</t>
   </si>
 </sst>
 </file>
@@ -489,20 +492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA0DA9F-C309-4B47-B7CE-E756C1A18F81}">
-  <dimension ref="A4:C35"/>
+  <dimension ref="A4:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -513,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -524,7 +527,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -535,7 +538,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -545,8 +548,11 @@
       <c r="C8">
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -557,7 +563,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -568,7 +574,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -579,56 +585,56 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>0.54900000000000004</v>
@@ -639,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>0.54900000000000004</v>
@@ -650,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>0.53700000000000003</v>
@@ -661,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>0.53100000000000003</v>
@@ -672,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>0.51200000000000001</v>
@@ -683,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>0.51200000000000001</v>
@@ -694,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>0.49399999999999999</v>
@@ -705,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>0.48099999999999998</v>
@@ -716,7 +722,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>0.46899999999999997</v>
@@ -727,7 +733,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>0.44700000000000001</v>
@@ -738,7 +744,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>0.44400000000000001</v>
@@ -749,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>0.438</v>
@@ -760,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>0.435</v>
@@ -771,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>0.42</v>
@@ -782,7 +788,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>0.41599999999999998</v>
@@ -793,7 +799,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>0.41599999999999998</v>
@@ -804,24 +810,24 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -832,15 +838,20 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>0.315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
